--- a/spider/book_list-摄影.xlsx
+++ b/spider/book_list-摄影.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
   <si>
     <t>序号</t>
   </si>
@@ -35,6 +35,15 @@
     <t>出版社</t>
   </si>
   <si>
+    <t>候场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英] 西蒙·安纳德 / 茅越宁 </t>
+  </si>
+  <si>
+    <t>出版信息： 新星出版社 / 2017-11 / 188.00元</t>
+  </si>
+  <si>
     <t>慶</t>
   </si>
   <si>
@@ -53,6 +62,15 @@
     <t>出版信息： Taschen / 2013-4-5 / GBP 44.99</t>
   </si>
   <si>
+    <t>Modernist Cuisine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Nathan Myhrvold / Chris Young / Maxime Bilet </t>
+  </si>
+  <si>
+    <t>出版信息： The Cooking Lab / 2011-3-7 / USD 625.00</t>
+  </si>
+  <si>
     <t>生命之灵</t>
   </si>
   <si>
@@ -62,15 +80,6 @@
     <t>出版信息： 中信出版社 / 2015-1 / 198.00元</t>
   </si>
   <si>
-    <t>候场</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英] 西蒙·安纳德 / 茅越宁 </t>
-  </si>
-  <si>
-    <t>出版信息： 新星出版社 / 2017-11 / 188.00元</t>
-  </si>
-  <si>
     <t>演化</t>
   </si>
   <si>
@@ -113,13 +122,13 @@
     <t>出版信息：齐柏林 / 中信出版集团 / 198.00元</t>
   </si>
   <si>
-    <t>珍藏布列松</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：亨利•卡蒂埃-布列松基金会 / 刘莉 / 张晓 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国摄影出版社 / 2010.5 / 258.00元</t>
+    <t>未来ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：川島小鳥 </t>
+  </si>
+  <si>
+    <t>出版信息： ナナロク社 / 2011-3-22 / JPY 2100</t>
   </si>
   <si>
     <t>樋口可南子・贅沢な時間</t>
@@ -131,15 +140,6 @@
     <t>出版信息： 小学館 / 1981 / JPY 713</t>
   </si>
   <si>
-    <t>未来ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：川島小鳥 </t>
-  </si>
-  <si>
-    <t>出版信息： ナナロク社 / 2011-3-22 / JPY 2100</t>
-  </si>
-  <si>
     <t>何藩 昨日香港</t>
   </si>
   <si>
@@ -176,6 +176,57 @@
     <t>出版信息： 电子工业出版社 / 2017-9 / 69.00元</t>
   </si>
   <si>
+    <t>美国绘画透视完全教程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：菲尔·梅茨格 / 孙惠卿 </t>
+  </si>
+  <si>
+    <t>出版信息： 上海人民美术出版社 / 2013-1 / 65.00元</t>
+  </si>
+  <si>
+    <t>艺术.设计的平面构成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：朝倉直巳 </t>
+  </si>
+  <si>
+    <t>出版信息： 呂清夫 / 北星圖書 / 144.4</t>
+  </si>
+  <si>
+    <t>机械复制时代的艺术作品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[德]W.本雅明 / 王才勇 译 / 朱更生 校 </t>
+  </si>
+  <si>
+    <t>出版信息： 浙江摄影出版社 / 1993-6 / 11.00元</t>
+  </si>
+  <si>
+    <t>大図解九龍城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：九龍城探検隊 </t>
+  </si>
+  <si>
+    <t>出版信息： 岩波書店 / 1997-7-10 / JPY 3240</t>
+  </si>
+  <si>
+    <t>白石麻衣写真集 パスポート</t>
+  </si>
+  <si>
+    <t>出版信息：白石 麻衣 / 講談社 / 2017-2-7</t>
+  </si>
+  <si>
+    <t>摄影师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法]埃曼努埃尔·吉贝尔(编绘) / [法]迪迪埃·勒费伍尔(摄/口述) / [法]弗雷德里克·勒梅西埃(绘) / 余轶 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2016-10 / 188.00元</t>
+  </si>
+  <si>
     <t>不合理的行为</t>
   </si>
   <si>
@@ -185,51 +236,6 @@
     <t>出版信息： 理想国 | 广西师范大学出版社 / 2017-7-1 / 88</t>
   </si>
   <si>
-    <t>影视光线创作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：刘永泗 / 刘莘莘 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2015-6 / 88.00元</t>
-  </si>
-  <si>
-    <t>美国绘画透视完全教程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：菲尔·梅茨格 / 孙惠卿 </t>
-  </si>
-  <si>
-    <t>出版信息： 上海人民美术出版社 / 2013-1 / 65.00元</t>
-  </si>
-  <si>
-    <t>机械复制时代的艺术作品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[德]W.本雅明 / 王才勇 译 / 朱更生 校 </t>
-  </si>
-  <si>
-    <t>出版信息： 浙江摄影出版社 / 1993-6 / 11.00元</t>
-  </si>
-  <si>
-    <t>大図解九龍城</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：九龍城探検隊 </t>
-  </si>
-  <si>
-    <t>出版信息： 岩波書店 / 1997-7-10 / JPY 3240</t>
-  </si>
-  <si>
-    <t>摄影师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[法]埃曼努埃尔·吉贝尔(编绘) / [法]迪迪埃·勒费伍尔(摄/口述) / [法]弗雷德里克·勒梅西埃(绘) / 余轶 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2016-10 / 188.00元</t>
-  </si>
-  <si>
     <t>被人遗忘的人：中国精神病人生存状况</t>
   </si>
   <si>
@@ -284,13 +290,13 @@
     <t>出版信息： 广西师范大学出版社 / 2016-1 / 79.00元</t>
   </si>
   <si>
-    <t>City of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Ian Lambot / Greg Girard </t>
-  </si>
-  <si>
-    <t>出版信息： Watermark / 1993-10 / GBP 42.50</t>
+    <t>我与这个世界的距离</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美]薇薇安·迈尔 / [美]约翰·马卢夫 / oneone </t>
+  </si>
+  <si>
+    <t>出版信息： 九州出版社 / 2017-8-1 / 88.00</t>
   </si>
   <si>
     <t>视觉艺术用光</t>
@@ -338,6 +344,33 @@
     <t>出版信息： 中国民族摄影艺术出版社 / 2015-6-1 / CNY 58.00</t>
   </si>
   <si>
+    <t>生命的肖像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Beate Lakotta / Walter Schels / 王威 </t>
+  </si>
+  <si>
+    <t>出版信息： 辽宁教育出版社 / 2005 / 68.00元</t>
+  </si>
+  <si>
+    <t>传奇布列松</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法] 克莱蒙·舍卢 / 门晓燕 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国摄影出版社 / 2015-8-1 / 298</t>
+  </si>
+  <si>
+    <t>壹玖壹壹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 刘香成 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司 / 2011-10 / 600.00元</t>
+  </si>
+  <si>
     <t>Istanbul</t>
   </si>
   <si>
@@ -347,13 +380,13 @@
     <t>出版信息： Aperture / 2007-05-01 / USD 50.00</t>
   </si>
   <si>
-    <t>生命的肖像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Beate Lakotta / Walter Schels / 王威 </t>
-  </si>
-  <si>
-    <t>出版信息： 辽宁教育出版社 / 2005 / 68.00元</t>
+    <t>俺爹俺娘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：焦波 </t>
+  </si>
+  <si>
+    <t>出版信息： 华艺出版社 / 2005-1 / 25.00元</t>
   </si>
   <si>
     <t>美国纽约摄影学院摄影教材（上）</t>
@@ -383,15 +416,6 @@
     <t>出版信息： 译林出版社 / 2013-11 / 128.00元</t>
   </si>
   <si>
-    <t>色彩与光线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：詹姆斯·格尔尼（James Gurney） / 解晓宁 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2013-1 / 88.00元</t>
-  </si>
-  <si>
     <t>Cui cui</t>
   </si>
   <si>
@@ -401,6 +425,15 @@
     <t>出版信息： IPS（日販） / 2005-3 / NT$ 1260</t>
   </si>
   <si>
+    <t>魔灯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[瑞典] 英格玛·伯格曼 / 张红军 </t>
+  </si>
+  <si>
+    <t>出版信息： 理想国 | 广西师大出版社 / 2017-8 / 88</t>
+  </si>
+  <si>
     <t>电影摄影：理论与实践</t>
   </si>
   <si>
@@ -416,163 +449,145 @@
     <t>出版信息： 中国民族摄影艺术出版社 / 2016-6 / 380</t>
   </si>
   <si>
+    <t>苍井优 - Travel Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：蒼井　優【著】 / 高橋　ヨーコ【撮影】 </t>
+  </si>
+  <si>
+    <t>出版信息： ロッキング・オン / 2005-12-25 / JPY 2484</t>
+  </si>
+  <si>
+    <t>布鲁诺·巴贝在路上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法] 布鲁诺·巴贝(摄影) / [法] 卡洛尔·纳伽 / [法] 徐峰 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2016-10 / 350.00元</t>
+  </si>
+  <si>
+    <t>あゝ、荒野</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：寺山修司 </t>
+  </si>
+  <si>
+    <t>出版信息： 森山大道 / PARCO (パルコ) / JPY$3500.00</t>
+  </si>
+  <si>
+    <t>贾想 I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：贾樟柯 / 万佳欢 编 </t>
+  </si>
+  <si>
+    <t>出版信息： 理想国|台海出版社 / 2017-6-1 / 49.00元</t>
+  </si>
+  <si>
+    <t>美国纽约摄影学院摄影教材（下）</t>
+  </si>
+  <si>
+    <t>出版信息： 中国摄影出版社 / 2000-05 / 90.00元</t>
+  </si>
+  <si>
+    <t>我是这个世界的间谍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 薇薇安·迈尔 / [美] 约翰·马卢夫 / oneone </t>
+  </si>
+  <si>
+    <t>出版信息： 九州出版社 / 2017-9-1 / 88.00元</t>
+  </si>
+  <si>
+    <t>美国纽约摄影学院摄影教材（下册）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：美国纽约摄影学院 / 中国摄影出版社 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国摄影出版社 / 2010-8 / 98.00元</t>
+  </si>
+  <si>
+    <t>马格南世纪经典</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：【美】克里斯汀·鲁本 主编 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国摄影出版社 / 2015-2-1 / 480.00元</t>
+  </si>
+  <si>
+    <t>觀看的方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：約翰．伯格(John Berger) / 吳莉君 </t>
+  </si>
+  <si>
+    <t>出版信息： 麥田 / 2010-8-9 / NT240</t>
+  </si>
+  <si>
+    <t>明室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Roland Barthes / （羅蘭。巴特） / 許綺玲 </t>
+  </si>
+  <si>
+    <t>出版信息： 台灣攝影工作室 / 1995年1月1日 / 新台幣360元</t>
+  </si>
+  <si>
+    <t>我们这一代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：肖全 </t>
+  </si>
+  <si>
+    <t>出版信息： 浙江人民美术出版社 / 2014-12-1 / 460</t>
+  </si>
+  <si>
+    <t>手艺中国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：(美) 鲁道夫.P.霍梅尔(Hommel,R.P.) / 戴吾三 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京理工大学出版社 / 2011-12-1 / 98.00元</t>
+  </si>
+  <si>
+    <t>雕刻光线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：麦克纳利 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2013-5 / 138.00元</t>
+  </si>
+  <si>
+    <t>照片里的20世纪全球史</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：尼克·雅普 (Nick Yapp) / 赵思婷 / 苏敏 / 江培芳 / 陈琦 / 谢萌 / 妙晨 / 王阳 / 野老 </t>
+  </si>
+  <si>
+    <t>出版信息： 海峡书局 / 2015-1-1 / CNY 60.00</t>
+  </si>
+  <si>
+    <t>雨林精灵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：林妲 / 宛妲 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2013-1 / 32.80元</t>
+  </si>
+  <si>
     <t>Ways of Seeing</t>
   </si>
   <si>
     <t xml:space="preserve">作者/译者：John Berger </t>
   </si>
   <si>
-    <t>出版信息： Penguin / 2008-9-25 / USD 19.75</t>
-  </si>
-  <si>
-    <t>あゝ、荒野</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：寺山修司 </t>
-  </si>
-  <si>
-    <t>出版信息： 森山大道 / PARCO (パルコ) / JPY$3500.00</t>
-  </si>
-  <si>
-    <t>杜可風春光乍洩攝影手記</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：杜可風(Christopher Doyle) </t>
-  </si>
-  <si>
-    <t>出版信息： 電影雙周刊出版有限公司 / 1997年5月 / 港幣98元</t>
-  </si>
-  <si>
-    <t>贾想 I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：贾樟柯 / 万佳欢 编 </t>
-  </si>
-  <si>
-    <t>出版信息： 理想国|台海出版社 / 2017-6-1 / 49.00元</t>
-  </si>
-  <si>
-    <t>Angel―ビビアン・スー写真集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：陳 文彬 </t>
-  </si>
-  <si>
-    <t>出版信息： 集英社 / 1995-1 / JPY 3570</t>
-  </si>
-  <si>
-    <t>美国纽约摄影学院摄影教材（下）</t>
-  </si>
-  <si>
-    <t>出版信息： 中国摄影出版社 / 2000-05 / 90.00元</t>
-  </si>
-  <si>
-    <t>我是这个世界的间谍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 薇薇安·迈尔 / [美] 约翰·马卢夫 / oneone </t>
-  </si>
-  <si>
-    <t>出版信息： 九州出版社 / 2017-9-1 / 88.00元</t>
-  </si>
-  <si>
-    <t>美国纽约摄影学院摄影教材（下册）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：美国纽约摄影学院 / 中国摄影出版社 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国摄影出版社 / 2010-8 / 98.00元</t>
-  </si>
-  <si>
-    <t>二十位人性见证者：当代摄影大师</t>
-  </si>
-  <si>
-    <t>作者/译者：阮义忠 / 九州出版社</t>
-  </si>
-  <si>
-    <t>出版信息：磨铁·文治图书 / 2016-5 / 128.00元</t>
-  </si>
-  <si>
-    <t>马格南世纪经典</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：【美】克里斯汀·鲁本 主编 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国摄影出版社 / 2015-2-1 / 480.00元</t>
-  </si>
-  <si>
-    <t>觀看的方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：約翰．伯格(John Berger) / 吳莉君 </t>
-  </si>
-  <si>
-    <t>出版信息： 麥田 / 2010-8-9 / NT240</t>
-  </si>
-  <si>
-    <t>雕刻光线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：麦克纳利 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2013-5 / 138.00元</t>
-  </si>
-  <si>
-    <t>手艺中国</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：(美) 鲁道夫.P.霍梅尔(Hommel,R.P.) / 戴吾三 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京理工大学出版社 / 2011-12-1 / 98.00元</t>
-  </si>
-  <si>
-    <t>明室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Roland Barthes / （羅蘭。巴特） / 許綺玲 </t>
-  </si>
-  <si>
-    <t>出版信息： 台灣攝影工作室 / 1995年1月1日 / 新台幣360元</t>
-  </si>
-  <si>
-    <t>雨林精灵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：林妲 / 宛妲 </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2013-1 / 32.80元</t>
-  </si>
-  <si>
-    <t>国家记忆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：章东磐 主编 </t>
-  </si>
-  <si>
-    <t>出版信息： 山西人民出版社 / 2010-10 / 98.00元</t>
-  </si>
-  <si>
-    <t>照片里的20世纪全球史</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：尼克·雅普 (Nick Yapp) / 赵思婷 / 苏敏 / 江培芳 / 陈琦 / 谢萌 / 妙晨 / 王阳 / 野老 </t>
-  </si>
-  <si>
-    <t>出版信息： 海峡书局 / 2015-1-1 / CNY 60.00</t>
-  </si>
-  <si>
-    <t>Mitch Epstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Mitch Epstein </t>
-  </si>
-  <si>
-    <t>出版信息： Steidl / 2006-11-15 / USD 50.00</t>
+    <t>出版信息： Penguin / 1990-5 / GBP 12.20</t>
   </si>
   <si>
     <t>摄影构图学</t>
@@ -602,15 +617,6 @@
     <t>出版信息： 上海人民美术出版社 / 2012-1 / 58.00元</t>
   </si>
   <si>
-    <t>内心的寂静</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：张晓 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京美术摄影出版社 / 2013-5-1 / 89.00元</t>
-  </si>
-  <si>
     <t>视觉之旅</t>
   </si>
   <si>
@@ -620,108 +626,105 @@
     <t>出版信息： 人民邮电出版社 / 2011-2-1 / 60.00元</t>
   </si>
   <si>
-    <t>热靴日记</t>
+    <t>決鬥寫真論</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：中平卓馬 / 篠山紀信 / 黃亞紀 </t>
+  </si>
+  <si>
+    <t>出版信息： 臉譜 / 2013-8-3 / 450元台币</t>
+  </si>
+  <si>
+    <t>直到長出青苔</t>
+  </si>
+  <si>
+    <t>作者/译者：杉本博司 / 黃亞紀 / 大家出版社 / 2010</t>
+  </si>
+  <si>
+    <t>出版信息：07/02 / NT 480</t>
+  </si>
+  <si>
+    <t>火车上的中国人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：王福春 </t>
+  </si>
+  <si>
+    <t>出版信息： 后浪丨北京联合出版公司 / 2017-6 / 160.00元</t>
+  </si>
+  <si>
+    <t>论摄影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 苏珊·桑塔格 / 黄灿然 </t>
+  </si>
+  <si>
+    <t>出版信息： 上海译文出版社 / 2010-5 / 38.00元</t>
+  </si>
+  <si>
+    <t>决斗写真论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[日] 筱山纪信 / [日] 中平卓马 / 黄亚纪 </t>
+  </si>
+  <si>
+    <t>出版信息： 理想国｜广西师范大学出版社 / 2017-5 / 82.00元</t>
+  </si>
+  <si>
+    <t>走来走去</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：刘涛 / Lens </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版集团 / 2016-6 / 68.00</t>
+  </si>
+  <si>
+    <t>我的野生动物朋友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法] 蒂皮·德格雷 著 / 阿兰·德格雷 茜尔维·罗伯特 图 / 黄天源 </t>
+  </si>
+  <si>
+    <t>出版信息： 云南教育出版社 / 2002-6 / 29.00元</t>
+  </si>
+  <si>
+    <t>Lens·目客004·猫：懒得理你</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Lens </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2016-6 / 68.00元</t>
+  </si>
+  <si>
+    <t>人像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 史蒂夫·麦凯瑞 / 后浪艺术编辑部 </t>
+  </si>
+  <si>
+    <t>出版信息： 后浪丨北京联合出版公司 / 2017-1 / 128.00元</t>
+  </si>
+  <si>
+    <t>视觉思维</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：鲁道夫·阿恩海姆 </t>
+  </si>
+  <si>
+    <t>出版信息： 滕守尧 / 光明日报出版社 / 1987</t>
+  </si>
+  <si>
+    <t>瞬间的背后</t>
   </si>
   <si>
     <t xml:space="preserve">作者/译者：乔·麦克纳利 / 何大鹏 </t>
   </si>
   <si>
-    <t>出版信息： 人民邮电出版社 / 2010-2 / 89.00元</t>
-  </si>
-  <si>
-    <t>決鬥寫真論</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：中平卓馬 / 篠山紀信 / 黃亞紀 </t>
-  </si>
-  <si>
-    <t>出版信息： 臉譜 / 2013-8-3 / 450元台币</t>
-  </si>
-  <si>
-    <t>火车上的中国人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：王福春 </t>
-  </si>
-  <si>
-    <t>出版信息： 后浪丨北京联合出版公司 / 2017-6 / 160.00元</t>
-  </si>
-  <si>
-    <t>论摄影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 苏珊·桑塔格 / 黄灿然 </t>
-  </si>
-  <si>
-    <t>出版信息： 上海译文出版社 / 2010-5 / 38.00元</t>
-  </si>
-  <si>
-    <t>决斗写真论</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 筱山纪信 / [日] 中平卓马 / 黄亚纪 </t>
-  </si>
-  <si>
-    <t>出版信息： 理想国｜广西师范大学出版社 / 2017-5 / 82.00元</t>
-  </si>
-  <si>
-    <t>走来走去</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：刘涛 / Lens </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版集团 / 2016-6 / 68.00</t>
-  </si>
-  <si>
-    <t>Lens·目客004·猫：懒得理你</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Lens </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2016-6 / 68.00元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：唐·麦卡林 / 刘易斯·切斯特 / 李文吉 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2012-7 / 49.80元</t>
-  </si>
-  <si>
-    <t>人像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 史蒂夫·麦凯瑞 / 后浪艺术编辑部 </t>
-  </si>
-  <si>
-    <t>出版信息： 后浪丨北京联合出版公司 / 2017-1 / 128.00元</t>
-  </si>
-  <si>
-    <t>家庭日记</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 森友治 / 渠海霞 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国摄影出版社 / 2012-2 / 69.00元</t>
-  </si>
-  <si>
-    <t>瞬间的背后</t>
-  </si>
-  <si>
     <t>出版信息： 人民邮电出版社 / 2009-2 / 69.00元</t>
   </si>
   <si>
-    <t>视觉思维</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：鲁道夫·阿恩海姆 </t>
-  </si>
-  <si>
-    <t>出版信息： 滕守尧 / 光明日报出版社 / 1987</t>
-  </si>
-  <si>
     <t>视觉原理</t>
   </si>
   <si>
@@ -731,6 +734,21 @@
     <t>出版信息： 北京大学出版社 / 1987 / 1.9</t>
   </si>
   <si>
+    <t>安妮在工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美]安妮·莱博维茨 / 周仰 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京美术摄影出版社 / 2012-10 / 289.00元</t>
+  </si>
+  <si>
+    <t>少女館</t>
+  </si>
+  <si>
+    <t>出版信息： 新潮社 / 1997-09 / JPY 33.60</t>
+  </si>
+  <si>
     <t>世间始终你好</t>
   </si>
   <si>
@@ -740,12 +758,6 @@
     <t>出版信息： 浦睿文化·湖南美术出版社 / 2016-3 / 58.00元</t>
   </si>
   <si>
-    <t>少女館</t>
-  </si>
-  <si>
-    <t>出版信息： 新潮社 / 1997-09 / JPY 33.60</t>
-  </si>
-  <si>
     <t>ほしのあき写真集 SNEAKER LOVER</t>
   </si>
   <si>
@@ -755,6 +767,15 @@
     <t>出版信息： ゴマブックス / 2008-2-1 / JPY 1836</t>
   </si>
   <si>
+    <t>世界摄影大师・布列松</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：狄源沧编 </t>
+  </si>
+  <si>
+    <t>出版信息： 江苏美术出版社 / 1998年6月第1版 / 18.00元</t>
+  </si>
+  <si>
     <t>在漫长的旅途中</t>
   </si>
   <si>
@@ -791,13 +812,13 @@
     <t>出版信息： 中国青年出版社 / 2009-9 / 78.00元</t>
   </si>
   <si>
-    <t>一次・图片和故事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：维姆・文德斯 / 崔峤 / 吕晋 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2004-04 / 58.00</t>
+    <t>失焦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[匈] 罗伯特·卡帕 / 徐振锋 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2005-3 / 18.00元</t>
   </si>
   <si>
     <t>毛以后的中国1976-1983</t>
@@ -818,6 +839,33 @@
     <t>出版信息： 江苏凤凰美术出版社 / 2013-1 / 78.00元</t>
   </si>
   <si>
+    <t>我见</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法]马克·吕布 / 孟蕤 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司·后浪出版公司 / 2015-1 / 128.00元</t>
+  </si>
+  <si>
+    <t>中国与中国人影像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英]约翰•汤姆逊 / 徐家宁 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2012-11 / 78.00元</t>
+  </si>
+  <si>
+    <t>你今天心情不好吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[澳] 布拉德里·特雷弗·格里夫 / 秋叶 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 辽宁教育出版社 / 2002-6 / 20.00元</t>
+  </si>
+  <si>
     <t>别处生活</t>
   </si>
   <si>
@@ -836,253 +884,277 @@
     <t>出版信息： 世界图书出版公司·后浪出版公司 / 2013-5 / 68.00元</t>
   </si>
   <si>
-    <t>二十位人性见证者:当代摄影大师</t>
+    <t>這就是當代攝影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Charlotte Cotton / 張世倫 </t>
+  </si>
+  <si>
+    <t>出版信息： 大家出版 / 2011-7-7 / NT$600</t>
+  </si>
+  <si>
+    <t>数码摄影后期高手之路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：李涛 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2016-5 / 168.00元</t>
+  </si>
+  <si>
+    <t>说园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：陈从周 文 / 陈健行 摄影 </t>
+  </si>
+  <si>
+    <t>出版信息： 山东画报出版社 同济大学出版社 / 2002-10 / 18.00元</t>
+  </si>
+  <si>
+    <t>生命的意义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 布拉德里·特雷弗·格里夫 / 曹化银 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 辽宁教育出版社 / 2002-8 / 26.00元</t>
+  </si>
+  <si>
+    <t>电影语言的语法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[乌]丹尼艾尔·阿里洪（Daniel Arijon） / 陈国铎 / 黎锡 / 周传基 审校 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2013-2 / 49.80元</t>
+  </si>
+  <si>
+    <t>艺术与视知觉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：（美）阿恩海姆 / 滕守尧 / 朱疆源 </t>
+  </si>
+  <si>
+    <t>出版信息： 四川人民出版社 / 1998-03 / 29.00</t>
+  </si>
+  <si>
+    <t>摄影的艺术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Bruce Barnbaum </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2012-2-1 / 118.00元</t>
+  </si>
+  <si>
+    <t>再见了，可鲁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[日] 石黑谦吾 撰文 / 秋元良平 摄影 / [日] 猿渡静子 译 </t>
+  </si>
+  <si>
+    <t>出版信息： 南海出版公司 / 2003-1 / 25.00元</t>
+  </si>
+  <si>
+    <t>以眼说话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：（美）布鲁斯·布洛克（Bruce A. Block） / 汪弋岚 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司·后浪出版公司 / 2012-9 / 68.00元</t>
+  </si>
+  <si>
+    <t>摄影师的视界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英] 迈克尔·弗里曼(Michael Freeman) / 张靖峻 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2009-9 / 88.00元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：鲁道夫·阿恩海姆 / 滕守尧 </t>
+  </si>
+  <si>
+    <t>出版信息： 四川人民出版社 / 1998-3 / 21.00元</t>
+  </si>
+  <si>
+    <t>植田正治小传记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：植田正治 / 曹逸冰 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2014-9 / 68.00</t>
+  </si>
+  <si>
+    <t>出版信息： 花城出版社 / 2006-4 / 39.80元</t>
+  </si>
+  <si>
+    <t>一次：图片和故事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[德]维姆·文德斯 / Wim Wenders / 宋新郁 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2014-3 / 88.00元</t>
+  </si>
+  <si>
+    <t>Picture This</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Molly Bang </t>
+  </si>
+  <si>
+    <t>出版信息： Chronicle Books / 2004-10-26 / CAD 14.99</t>
+  </si>
+  <si>
+    <t>每一个疯狂的念头：书写、摄影与历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Geoffrey Batchen / 周仰 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国民族摄影艺术出版社 / 2015-11 / 58</t>
+  </si>
+  <si>
+    <t>極度疼痛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：蘇菲.卡爾(Sophie Calle) / 賈翊君 </t>
+  </si>
+  <si>
+    <t>出版信息： 大家 / 2014-10 / NT$560</t>
+  </si>
+  <si>
+    <t>日本寫真50年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：大竹昭子 / 黃大旺 </t>
+  </si>
+  <si>
+    <t>出版信息： 臉譜 / 2014-4-2 / NT$320</t>
+  </si>
+  <si>
+    <t>神話少女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：篠山 紀信 / 新潮社 </t>
+  </si>
+  <si>
+    <t>出版信息： 1997/03 / JPY 36.75</t>
+  </si>
+  <si>
+    <t>摄影批判导论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Liz Wells / 李际 / 陈伟斯 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2012-8 / 128.00元</t>
+  </si>
+  <si>
+    <t>迎向灵光消逝的年代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[德] 瓦尔特·本雅明 / 许绮玲 / 林志明 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2004-08 / 16.00</t>
+  </si>
+  <si>
+    <t>弗兰西斯·培根：感觉的逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法] 吉尔·德勒兹 / 董强 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2011-7 / 28.00元</t>
+  </si>
+  <si>
+    <t>那一天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：(法) 维利·罗尼 / 赵朝泉 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2014-12 / 49.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[法]罗兰·巴尔特 / 赵克非 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国人民大学出版社 / 2011-3 / 19.80元</t>
+  </si>
+  <si>
+    <t>艺术·设计的色彩构成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：（日）朝仓直巳 / 赵郧安 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国计划出版社 / 2000 / 130.0</t>
+  </si>
+  <si>
+    <t>昨天的青春：八十年代中学生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：任曙林 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2016-11 / 99.80元</t>
+  </si>
+  <si>
+    <t>一本摄影书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：赵嘉 / 爱摄影工社 </t>
+  </si>
+  <si>
+    <t>出版信息： 电子工业出版社 / 2012-2 / 98.00元</t>
+  </si>
+  <si>
+    <t>Lens·目客002：我这样爱你</t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2015-8 / 42.00元</t>
+  </si>
+  <si>
+    <t>电影镜头设计（插图修订第2版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美]史蒂文·卡茨（Steven D. Katz） / 井迎兆 / 王旭锋 / 游飞 审订 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2015-9 / 55.00元</t>
+  </si>
+  <si>
+    <t>海上灵光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：许嵩 </t>
+  </si>
+  <si>
+    <t>出版信息： 安徽美术出版社 / 2013-8 / 49</t>
+  </si>
+  <si>
+    <t>任航诗集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：任航 </t>
+  </si>
+  <si>
+    <t>出版信息： 脑神经衰弱 / 2013-7 / 38.00</t>
+  </si>
+  <si>
+    <t>二十位人性见证者</t>
   </si>
   <si>
     <t xml:space="preserve">作者/译者：阮义忠 </t>
   </si>
   <si>
-    <t>出版信息： 中国华侨出版社 / 2012-12 / 58.00元</t>
-  </si>
-  <si>
-    <t>Photoshop七大核心技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Scott Kelby / 许伟民 / 袁鹏飞 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2008-8 / 49.00元</t>
-  </si>
-  <si>
-    <t>這就是當代攝影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Charlotte Cotton / 張世倫 </t>
-  </si>
-  <si>
-    <t>出版信息： 大家出版 / 2011-7-7 / NT$600</t>
-  </si>
-  <si>
-    <t>数码摄影后期高手之路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：李涛 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2016-5 / 168.00元</t>
-  </si>
-  <si>
-    <t>八十年代中学生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：任曙林 </t>
-  </si>
-  <si>
-    <t>出版信息： 新星出版社 / 2011-11-1 / 38.00元</t>
-  </si>
-  <si>
-    <t>出版信息： 上海译文出版社 / 2012-10 / 28.00元</t>
-  </si>
-  <si>
-    <t>电影语言的语法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[乌]丹尼艾尔·阿里洪（Daniel Arijon） / 陈国铎 / 黎锡 / 周传基 审校 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2013-2 / 49.80元</t>
-  </si>
-  <si>
-    <t>艺术与视知觉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：（美）阿恩海姆 / 滕守尧 / 朱疆源 </t>
-  </si>
-  <si>
-    <t>出版信息： 四川人民出版社 / 1998-03 / 29.00</t>
-  </si>
-  <si>
-    <t>摄影的艺术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Bruce Barnbaum </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2012-2-1 / 118.00元</t>
-  </si>
-  <si>
-    <t>再见了，可鲁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 石黑谦吾 撰文 / 秋元良平 摄影 / [日] 猿渡静子 译 </t>
-  </si>
-  <si>
-    <t>出版信息： 南海出版公司 / 2003-1 / 25.00元</t>
-  </si>
-  <si>
-    <t>以眼说话</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：（美）布鲁斯·布洛克（Bruce A. Block） / 汪弋岚 </t>
-  </si>
-  <si>
-    <t>出版信息： 世界图书出版公司·后浪出版公司 / 2012-9 / 68.00元</t>
-  </si>
-  <si>
-    <t>摄影师的视界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英] 迈克尔·弗里曼(Michael Freeman) / 张靖峻 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2009-9 / 88.00元</t>
-  </si>
-  <si>
-    <t>艺术·设计的平面构成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 朝仓直巳 / 林征 / 林华 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国计划出版社 / 2000-1 / 120.00元</t>
-  </si>
-  <si>
-    <t>Lens·视觉001：激情藏在安静的角落</t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2015-7 / 42.00元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：鲁道夫·阿恩海姆 / 滕守尧 </t>
-  </si>
-  <si>
-    <t>出版信息： 四川人民出版社 / 1998-3 / 21.00元</t>
-  </si>
-  <si>
-    <t>人与土地</t>
-  </si>
-  <si>
-    <t>出版信息： 中国华侨出版社 / 2012-1-1 / 39.00元</t>
-  </si>
-  <si>
-    <t>我们这一代</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：肖全 </t>
-  </si>
-  <si>
-    <t>出版信息： 花城出版社 / 2006-4 / 39.80元</t>
-  </si>
-  <si>
-    <t>Picture This</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Molly Bang </t>
-  </si>
-  <si>
-    <t>出版信息： Chronicle Books / 2004-10-26 / CAD 14.99</t>
-  </si>
-  <si>
-    <t>每一个疯狂的念头：书写、摄影与历史</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Geoffrey Batchen / 周仰 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国民族摄影艺术出版社 / 2015-11 / 58</t>
-  </si>
-  <si>
-    <t>日本寫真50年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：大竹昭子 / 黃大旺 </t>
-  </si>
-  <si>
-    <t>出版信息： 臉譜 / 2014-4-2 / NT$320</t>
-  </si>
-  <si>
-    <t>摄影批判导论</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Liz Wells / 李际 / 陈伟斯 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2012-8 / 128.00元</t>
-  </si>
-  <si>
-    <t>Lens·视觉006：我停在你将回来的地方</t>
-  </si>
-  <si>
-    <t>出版信息：Lens / 中信出版集团 / 48.00</t>
-  </si>
-  <si>
-    <t>迎向灵光消逝的年代</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[德] 瓦尔特·本雅明 / 许绮玲 / 林志明 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2004-08 / 16.00</t>
-  </si>
-  <si>
-    <t>时间―影像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：德勒兹 / 谢强/蔡若明/马月 </t>
-  </si>
-  <si>
-    <t>出版信息： 湖南美术出版社 / 2004-08 / 38.00</t>
-  </si>
-  <si>
-    <t>我们在此相遇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英] 约翰·伯格 / 吴莉君 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2009-7 / 24.00元</t>
-  </si>
-  <si>
-    <t>那一天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：(法) 维利·罗尼 / 赵朝泉 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2014-12 / 49.00</t>
-  </si>
-  <si>
-    <t>一本摄影书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：赵嘉 / 爱摄影工社 </t>
-  </si>
-  <si>
-    <t>出版信息： 电子工业出版社 / 2012-2 / 98.00元</t>
-  </si>
-  <si>
-    <t>Lens·目客002：我这样爱你</t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2015-8 / 42.00元</t>
-  </si>
-  <si>
-    <t>电影镜头设计（插图修订第2版）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美]史蒂文·卡茨（Steven D. Katz） / 井迎兆 / 王旭锋 / 游飞 审订 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2015-9 / 55.00元</t>
-  </si>
-  <si>
-    <t>海上灵光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：许嵩 </t>
-  </si>
-  <si>
-    <t>出版信息： 安徽美术出版社 / 2013-8 / 49</t>
+    <t>出版信息： 生活·读书·新知三联书店 / 2006-7 / 41.00元</t>
   </si>
   <si>
     <t>视觉012：我们是不是非要那么急迫不可</t>
@@ -1091,15 +1163,6 @@
     <t>出版信息： 中信出版集团 / 2017-6 / 48.00元</t>
   </si>
   <si>
-    <t>任航诗集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：任航 </t>
-  </si>
-  <si>
-    <t>出版信息： 脑神经衰弱 / 2013-7 / 38.00</t>
-  </si>
-  <si>
     <t>离上帝最近</t>
   </si>
   <si>
@@ -1109,12 +1172,6 @@
     <t>出版信息： 文汇出版社 / 2005-04 / 25.00</t>
   </si>
   <si>
-    <t>二十位人性见证者</t>
-  </si>
-  <si>
-    <t>出版信息： 生活·读书·新知三联书店 / 2006-7 / 41.00元</t>
-  </si>
-  <si>
     <t>上海屋里厢（中英双语）</t>
   </si>
   <si>
@@ -1136,15 +1193,6 @@
     <t>出版信息： 中信出版社 / 2017-2 / 48.00元</t>
   </si>
   <si>
-    <t>大师镜头（第二卷）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：克里斯托弗 肯沃斯 / 魏俊彦 </t>
-  </si>
-  <si>
-    <t>出版信息： 电子工业出版社 / 2013-4 / 68.00元</t>
-  </si>
-  <si>
     <t xml:space="preserve">作者/译者：【美】鲁道夫·阿恩海姆 / 孟沛欣 </t>
   </si>
   <si>
@@ -1163,6 +1211,15 @@
     <t>出版信息：大友 正悦 / ズーム社 / 1983</t>
   </si>
   <si>
+    <t>把青春唱完1990-1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：高原 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版集团 / 2015-8-30 / CNY 68.00</t>
+  </si>
+  <si>
     <t>机械复制时代的艺术</t>
   </si>
   <si>
@@ -1172,13 +1229,19 @@
     <t>出版信息： 重庆出版社 / 2006-10 / 55.00元</t>
   </si>
   <si>
-    <t>另一个世界</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：林西莉 / 李之义 </t>
-  </si>
-  <si>
-    <t>出版信息： 中华书局 / 2016-9-1 / 76.00元</t>
+    <t>我甚至希望旅途永无止境</t>
+  </si>
+  <si>
+    <t>出版信息： 广东人民出版社 / 2016-11-1 / 68</t>
+  </si>
+  <si>
+    <t>大师场景：导演、编剧、剪辑师必知的顶级场景转换术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：【澳大利亚】Jeffrey Michael Bays 杰弗里·迈克尔·贝斯 著 / 黄德宗 </t>
+  </si>
+  <si>
+    <t>出版信息： 电子工业出版社 / 2015-5 / 49</t>
   </si>
   <si>
     <t>Lens·视觉003：不需要安全感就是自由</t>
@@ -1187,30 +1250,6 @@
     <t>出版信息： 中信出版集团 / 2015-11 / 42.00元</t>
   </si>
   <si>
-    <t>大师场景：导演、编剧、剪辑师必知的顶级场景转换术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：【澳大利亚】Jeffrey Michael Bays 杰弗里·迈克尔·贝斯 著 / 黄德宗 </t>
-  </si>
-  <si>
-    <t>出版信息： 电子工业出版社 / 2015-5 / 49</t>
-  </si>
-  <si>
-    <t>大师镜头（第三卷）——导演视野：让电影脱颖而出的100个镜头调度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Christopher Kenworthy （克里斯托弗.肯沃斯） / 黄德宗 </t>
-  </si>
-  <si>
-    <t>出版信息： 电子工业出版社 / 2014-8-1 / 69.00元</t>
-  </si>
-  <si>
-    <t>朝鮮聞見錄</t>
-  </si>
-  <si>
-    <t>出版信息： 三聯書店(香港)有限公司 / 2013-7-17 / HKD 138.00</t>
-  </si>
-  <si>
     <t>摄影构图与图像语言</t>
   </si>
   <si>
@@ -1244,6 +1283,12 @@
     <t>出版信息： 广东人民出版社 / 2015-8-1 / 68.00元</t>
   </si>
   <si>
+    <t>关于他人的痛苦</t>
+  </si>
+  <si>
+    <t>出版信息： 上海译文出版社 / 2006-6 / 13.00元</t>
+  </si>
+  <si>
     <t>摄影小史+机械复制时代的艺术作品</t>
   </si>
   <si>
@@ -1271,6 +1316,12 @@
     <t>出版信息： 电子工业出版社 / 2010 / 59.00元</t>
   </si>
   <si>
+    <t xml:space="preserve">作者/译者：[德] 瓦尔特·本雅明 / 王才勇 </t>
+  </si>
+  <si>
+    <t>出版信息： 中国城市出版社 / 2002-1 / 13.80元</t>
+  </si>
+  <si>
     <t>此刻</t>
   </si>
   <si>
@@ -1280,10 +1331,13 @@
     <t>出版信息： 浙江文艺出版社 / 2017-6 / 45.00</t>
   </si>
   <si>
-    <t>失落的优雅</t>
-  </si>
-  <si>
-    <t>出版信息： 中国华侨出版社 / 2013-8 / 39.80元</t>
+    <t>场面调度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 史蒂文·卡茨 / 陈阳 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司 / 2011-2 / 49.80元</t>
   </si>
   <si>
     <t>西部招妻</t>
@@ -1292,24 +1346,6 @@
     <t>出版信息： 浙江人民出版社 / 2014-6-1 / CNY 45.80</t>
   </si>
   <si>
-    <t>场面调度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 史蒂文·卡茨 / 陈阳 </t>
-  </si>
-  <si>
-    <t>出版信息： 世界图书出版公司 / 2011-2 / 49.80元</t>
-  </si>
-  <si>
-    <t>表情不错的人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 荒木经惟 / 竺家荣 / 中信出版集团 </t>
-  </si>
-  <si>
-    <t>出版信息： 楚尘文化 / 2016-6-30 / 58.00元</t>
-  </si>
-  <si>
     <t>犬的记忆</t>
   </si>
   <si>
@@ -1340,6 +1376,15 @@
     <t>Lens·视觉002：想在一生中做一件正确的事</t>
   </si>
   <si>
+    <t>RIONファースト写真集『my home』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：上野勇 </t>
+  </si>
+  <si>
+    <t>出版信息： ジーオーティー / 2015-12-19 / JPY 3780</t>
+  </si>
+  <si>
     <t>人在纽约</t>
   </si>
   <si>
@@ -1406,6 +1451,12 @@
     <t>出版信息： 浦睿文化·湖南人民出版社 / 2014-11 / 48.00元</t>
   </si>
   <si>
+    <t>Lens·目客001:花朵与我</t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2015-4 / 42.00元</t>
+  </si>
+  <si>
     <t>世界上最老最老的生命</t>
   </si>
   <si>
@@ -1415,6 +1466,24 @@
     <t>出版信息： 北京大学出版社 / 2016-10 / 98.00元</t>
   </si>
   <si>
+    <t>北极光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：（日）星野道夫 / 传神联合（北京）信息技术有限公司 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2010-1 / 28.00元</t>
+  </si>
+  <si>
+    <t>有如走路的速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[日] 是枝裕和 / 陈文娟 </t>
+  </si>
+  <si>
+    <t>出版信息： 南海出版公司 / 2016-2-1 / 39.50元</t>
+  </si>
+  <si>
     <t>丰子恺谈名画</t>
   </si>
   <si>
@@ -1424,13 +1493,22 @@
     <t>出版信息： 东方出版社 / 2005-11-1 / 29.80</t>
   </si>
   <si>
-    <t>有如走路的速度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 是枝裕和 / 陈文娟 </t>
-  </si>
-  <si>
-    <t>出版信息： 南海出版公司 / 2016-2-1 / 39.50元</t>
+    <t>摄影师之眼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 约翰·萨考斯基 / 唐凌洁 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2012-6 / 69.00元</t>
+  </si>
+  <si>
+    <t>坦白书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：马良 </t>
+  </si>
+  <si>
+    <t>出版信息： 浦睿文化·湖南文艺出版社 / 2012-9 / 38.00元</t>
   </si>
   <si>
     <t>眨眼之间</t>
@@ -1442,6 +1520,24 @@
     <t>出版信息： 北京联合出版公司·后浪出版公司 / 2012-8 / 26.00元</t>
   </si>
   <si>
+    <t>于坚诗歌·便条集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：于坚 </t>
+  </si>
+  <si>
+    <t>出版信息： 云南人民出版社 / 2001-9 / 12.00元</t>
+  </si>
+  <si>
+    <t>何必等来生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：燕子 </t>
+  </si>
+  <si>
+    <t>出版信息： 化学工业出版社 / 2015-7-1 / 49.80元</t>
+  </si>
+  <si>
     <t>荣荣的东村</t>
   </si>
   <si>
@@ -1451,6 +1547,24 @@
     <t>出版信息：上海人民出版社 / 2014-1 / 49.00</t>
   </si>
   <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英] 约翰·伯格 / 刘惠媛 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2015-7 / 42.00元</t>
+  </si>
+  <si>
+    <t>永不褪色的时光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美]克里斯托弗·博纳诺斯 / 胡玥 </t>
+  </si>
+  <si>
+    <t>出版信息： 重庆大学出版社 / 2015-5-1 / 68.00</t>
+  </si>
+  <si>
     <t>色彩的性格</t>
   </si>
   <si>
@@ -1460,24 +1574,6 @@
     <t>出版信息： 中央编译出版社 / 2008 / 158.00元</t>
   </si>
   <si>
-    <t>看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英] 约翰·伯格 / 刘惠媛 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2015-7 / 42.00元</t>
-  </si>
-  <si>
-    <t>另一种讲述的方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英] 约翰·伯格 / [瑞士] 让·摩尔 / 沈语冰 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2007-5 / 39.00元</t>
-  </si>
-  <si>
     <t>迈向另一个国度</t>
   </si>
   <si>
@@ -1496,6 +1592,15 @@
     <t>出版信息： 广西师范大学出版社 / 2014-4 / 78.00</t>
   </si>
   <si>
+    <t>摄影笔记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：宁思潇潇 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民邮电出版社 / 2015-8-1 / 69.00元</t>
+  </si>
+  <si>
     <t>世上的光</t>
   </si>
   <si>
@@ -1505,21 +1610,9 @@
     <t>出版信息：楚尘文化 / 2012-4 / 48.00元</t>
   </si>
   <si>
-    <t>爱猫奇洛</t>
-  </si>
-  <si>
-    <t>作者/译者：[日]荒木经惟 / 金晶 / 重庆大学出版社</t>
-  </si>
-  <si>
-    <t>出版信息：楚尘文化 / 2013-7 / 48.00元</t>
-  </si>
-  <si>
     <t>人间卧底</t>
   </si>
   <si>
-    <t xml:space="preserve">作者/译者：马良 </t>
-  </si>
-  <si>
     <t>出版信息： 广西师范大学出版社 / 2015-5 / 38.00</t>
   </si>
   <si>
@@ -1541,6 +1634,15 @@
     <t>出版信息： 董乐乐 / 北京联合出版公司 / 258.00元</t>
   </si>
   <si>
+    <t>世界如锦心如梭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：毕淑敏 </t>
+  </si>
+  <si>
+    <t>出版信息： 浙江摄影出版社 / 2017-1-1 / 46</t>
+  </si>
+  <si>
     <t>拍电影</t>
   </si>
   <si>
@@ -1559,15 +1661,6 @@
     <t>出版信息： 广西师范大学出版社 / 2008-8-1 / 36.0</t>
   </si>
   <si>
-    <t>视觉文化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：理查德·豪厄尔斯 / 葛红兵等 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2007-5 / 32.00元</t>
-  </si>
-  <si>
     <t>此时此地</t>
   </si>
   <si>
@@ -1577,135 +1670,102 @@
     <t>出版信息： 广西师范大学出版社 / 2010-9 / 35.00元</t>
   </si>
   <si>
-    <t>我爱这哭不出来的浪漫</t>
+    <t>张艺谋的作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：张艺谋 / 方希 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京大学出版社 / 2012-1 / 48.00元</t>
+  </si>
+  <si>
+    <t>彩色的中国（平装）</t>
+  </si>
+  <si>
+    <t>作者/译者：翁乃强 / 中信出版集团</t>
+  </si>
+  <si>
+    <t>出版信息：中国国家地理图书 / 2017-2 / 78.00元</t>
+  </si>
+  <si>
+    <t>廿四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：青简 </t>
+  </si>
+  <si>
+    <t>出版信息： 北京联合出版公司 / 2017-1-1 / 49.80元</t>
+  </si>
+  <si>
+    <t>如果我们的语言是威士忌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：(日)村上春树 / 林少华 </t>
+  </si>
+  <si>
+    <t>出版信息： 上海译文出版社 / 2004-01 / 18.00</t>
+  </si>
+  <si>
+    <t>怎样观察一朵花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 罗伯特·卢埃林 / [美] 特里·邓恩·切斯 / 周玮 </t>
+  </si>
+  <si>
+    <t>出版信息： 商务印书馆 / 2016-10 / 98.00</t>
+  </si>
+  <si>
+    <t>The Big Penis Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：Dian Hanson </t>
+  </si>
+  <si>
+    <t>出版信息： TASCHEN / 2008-6-25 / USD 59.99</t>
+  </si>
+  <si>
+    <t>导演的摄影课</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美]杰奎琳·弗洛斯特 / 巩如梅 等 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司·后浪出版公司 / 2014-2 / 60.00元</t>
+  </si>
+  <si>
+    <t>观复猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：马未都 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版社 / 2016-1 / 45.00元</t>
+  </si>
+  <si>
+    <t>谷物07：刻意疏离</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英]Cereal编辑部 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版集团 / 2017-9 / 56.00元</t>
+  </si>
+  <si>
+    <t>镜头的语法（插图第2版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[英]罗伊·汤普森 / [美]克里斯托弗·J·鲍恩 / 李蕊 </t>
+  </si>
+  <si>
+    <t>出版信息： 世界图书出版公司 / 2013-8 / 29.80元</t>
+  </si>
+  <si>
+    <t>大国志</t>
   </si>
   <si>
     <t xml:space="preserve">作者/译者：严明 </t>
   </si>
   <si>
-    <t>出版信息： 广西师范大学出版社 / 2014-7-1 / 35.00</t>
-  </si>
-  <si>
-    <t>美国摄影用光教程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Fil Hunter / Steven Biver / Paul Fuqua / 刘炳燕 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民邮电出版社 / 2008-9 / 59.00元</t>
-  </si>
-  <si>
-    <t>张艺谋的作业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：张艺谋 / 方希 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京大学出版社 / 2012-1 / 48.00元</t>
-  </si>
-  <si>
-    <t>彩色的中国（平装）</t>
-  </si>
-  <si>
-    <t>作者/译者：翁乃强 / 中信出版集团</t>
-  </si>
-  <si>
-    <t>出版信息：中国国家地理图书 / 2017-2 / 78.00元</t>
-  </si>
-  <si>
-    <t>荒木经惟的天才写真术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[日] 荒木经惟 / 柯宛汶 </t>
-  </si>
-  <si>
-    <t>出版信息： 甘肃人民美术出版社 / 2011-3 / 35.00元</t>
-  </si>
-  <si>
-    <t>如果我们的语言是威士忌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：(日)村上春树 / 林少华 </t>
-  </si>
-  <si>
-    <t>出版信息： 上海译文出版社 / 2004-01 / 18.00</t>
-  </si>
-  <si>
-    <t>怎样观察一朵花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 罗伯特·卢埃林 / [美] 特里·邓恩·切斯 / 周玮 </t>
-  </si>
-  <si>
-    <t>出版信息： 商务印书馆 / 2016-10 / 98.00</t>
-  </si>
-  <si>
-    <t>The Big Penis Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：Dian Hanson </t>
-  </si>
-  <si>
-    <t>出版信息： TASCHEN / 2008-6-25 / USD 59.99</t>
-  </si>
-  <si>
-    <t>当历史可以观看</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：冯克力 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2015-5 / 49.00元</t>
-  </si>
-  <si>
-    <t>观复猫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：马未都 </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2016-1 / 45.00元</t>
-  </si>
-  <si>
-    <t>RIONファースト写真集『my home』</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：上野勇 </t>
-  </si>
-  <si>
-    <t>出版信息： ジーオーティー / 2015-12-19 / JPY 3780</t>
-  </si>
-  <si>
-    <t>导演的摄影课</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美]杰奎琳·弗洛斯特 / 巩如梅 等 </t>
-  </si>
-  <si>
-    <t>出版信息： 世界图书出版公司·后浪出版公司 / 2014-2 / 60.00元</t>
-  </si>
-  <si>
-    <t>谷物07：刻意疏离</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英]Cereal编辑部 </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版集团 / 2017-9 / 56.00元</t>
-  </si>
-  <si>
-    <t>镜头的语法（插图第2版）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[英]罗伊·汤普森 / [美]克里斯托弗·J·鲍恩 / 李蕊 </t>
-  </si>
-  <si>
-    <t>出版信息： 世界图书出版公司 / 2013-8 / 29.80元</t>
-  </si>
-  <si>
-    <t>大国志</t>
-  </si>
-  <si>
     <t>出版信息： 广西师范大学出版社 / 2015-11 / 66.00元</t>
   </si>
   <si>
@@ -1715,15 +1775,6 @@
     <t>出版信息： 浙江人民美术 / 2006-7 / 29.00元</t>
   </si>
   <si>
-    <t>图像的命运</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[法] 雅克·朗西埃 / 张新木 / 陆洵 </t>
-  </si>
-  <si>
-    <t>出版信息： 南京大学出版社 / 2014-1 / 35.00元</t>
-  </si>
-  <si>
     <t>黑白</t>
   </si>
   <si>
@@ -1733,40 +1784,13 @@
     <t>出版信息： 楚尘文化 / 2017-5 / 58.00元</t>
   </si>
   <si>
-    <t>关于策展的一切</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[瑞士]汉斯·乌尔里希·奥布里斯特 / 任爱凡 </t>
-  </si>
-  <si>
-    <t>出版信息： 金城出版社 / 2013-6 / 38.00元</t>
-  </si>
-  <si>
-    <t>我从新疆来</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：库尔班江·赛买提 </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2014-10-16 / CNY 58.00</t>
-  </si>
-  <si>
-    <t>江南春色&lt;人体艺术造型&gt;(上)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：云雨 / 张建明 / 钱豫强 </t>
-  </si>
-  <si>
-    <t>出版信息： 湖北美术出版社 / 2004-5-1 / 15.0</t>
-  </si>
-  <si>
-    <t>最好的时光在路上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：郭子鹰 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国大百科全书出版社 / 2011-10 / 38.00元</t>
+    <t>谷物01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：英国Cereal编辑部 / 张晓敏 </t>
+  </si>
+  <si>
+    <t>出版信息： 中信出版集团 / 2016-1-26 / 49.00元</t>
   </si>
   <si>
     <t>聖少女</t>
@@ -1778,22 +1802,40 @@
     <t>出版信息： フジアート出版 / 1977-10-21 / 3,800円</t>
   </si>
   <si>
-    <t>汤加丽人体艺术写真</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：张旭龙 摄影 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民美术出版社 / 2002-9 / 68.00元</t>
-  </si>
-  <si>
-    <t>灯光师入门（插图第3版）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[美] 查克·格隆曼 / [美] 汤姆·勒图尔诺 / 王博学 / 杜金穗 </t>
-  </si>
-  <si>
-    <t>出版信息： 北京联合出版公司·后浪出版公司 / 2016-12 / 128.00元</t>
+    <t>写真的话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：(日) 荒木经惟 / 彭盈真 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2014-10 / 58.00</t>
+  </si>
+  <si>
+    <t>水知道答案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：江本胜 / [日]猿渡静子 </t>
+  </si>
+  <si>
+    <t>出版信息： 南海出版公司 / 2004-01 / 20.00</t>
+  </si>
+  <si>
+    <t>汤加丽人体艺术摄影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：石松 摄影 </t>
+  </si>
+  <si>
+    <t>出版信息： 人民美术出版社 / 2003-11 / 78.00元</t>
+  </si>
+  <si>
+    <t>漫步东京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：荒木经惟 / 阿夜 </t>
+  </si>
+  <si>
+    <t>出版信息： 广西师范大学出版社 / 2013-10 / 58.00</t>
   </si>
   <si>
     <t>我是爬行者小江</t>
@@ -1802,34 +1844,16 @@
     <t xml:space="preserve">作者/译者：江一燕 </t>
   </si>
   <si>
-    <t>出版信息： 湖南文艺出版社 / 2012-9 / 39.00元</t>
-  </si>
-  <si>
-    <t>水知道答案</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：江本胜 / [日]猿渡静子 </t>
-  </si>
-  <si>
-    <t>出版信息： 南海出版公司 / 2004-01 / 20.00</t>
-  </si>
-  <si>
-    <t>汤加丽人体艺术摄影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：石松 摄影 </t>
-  </si>
-  <si>
-    <t>出版信息： 人民美术出版社 / 2003-11 / 78.00元</t>
-  </si>
-  <si>
-    <t>漫步东京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：荒木经惟 / 阿夜 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2013-10 / 58.00</t>
+    <t>出版信息： 湖南文艺出版社 / 2016-5-1 / CNY 45.00</t>
+  </si>
+  <si>
+    <t>什么是艺术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 沃特伯格 / 李奉栖 / 张云 / 胥全文 / 吴瑜 </t>
+  </si>
+  <si>
+    <t>出版信息： 重庆大学出版社 / 2011-2 / 55.00元</t>
   </si>
   <si>
     <t>人体·自然·造型.艺用模特篇</t>
@@ -1841,31 +1865,22 @@
     <t>出版信息： 西泠印社 / 2003-1 / 36.00元</t>
   </si>
   <si>
-    <t>人体艺术摄影（上）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：张建明 编 </t>
-  </si>
-  <si>
-    <t>出版信息： 湖北美术出版社 / 2005-2 / 39.60元</t>
-  </si>
-  <si>
-    <t>くちづけ―吉本多香美写真集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：橋本 雅司 </t>
-  </si>
-  <si>
-    <t>出版信息： バウハウス / 2002-9 / JPY 3400</t>
-  </si>
-  <si>
-    <t>笨牛人体艺术摄影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：笨牛 摄 </t>
-  </si>
-  <si>
-    <t>出版信息： 岭南美术出版社 / 2002-6 / 68.00元</t>
+    <t>街拍,我的信仰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：森山大道 / 仲本刚 / 唯不争 </t>
+  </si>
+  <si>
+    <t>出版信息： 南海出版公司 / 2016-1-1 / 38.00元</t>
+  </si>
+  <si>
+    <t>人在北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[新加坡] 陈惜惜 / Tan Siok Siok </t>
+  </si>
+  <si>
+    <t>出版信息： 后浪丨北京联合出版公司 / 2017-6 / 39.80元</t>
   </si>
   <si>
     <t>三浦敦子写真集</t>
@@ -1883,6 +1898,15 @@
     <t>出版信息： 中信出版社 / 2017-11 / 58</t>
   </si>
   <si>
+    <t>旅行之阅 阅读之美</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：顾晓光 </t>
+  </si>
+  <si>
+    <t>出版信息： 清华大学出版社 / 2017-9 / 78.00</t>
+  </si>
+  <si>
     <t>雪花的答案</t>
   </si>
   <si>
@@ -1910,22 +1934,22 @@
     <t>出版信息： 中信出版社 / 2017-10 / 198.00元</t>
   </si>
   <si>
-    <t>失焦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[匈]罗伯特·卡帕 / 徐振锋 </t>
-  </si>
-  <si>
-    <t>出版信息： 广西师范大学出版社 / 2017-10-1 / 52.00</t>
-  </si>
-  <si>
-    <t>遗址与图像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：巫鸿、郭伟其 主编 </t>
-  </si>
-  <si>
-    <t>出版信息： 中国民族摄影艺术出版社 / 2017-10-1 / CNY 138.00</t>
+    <t>艾略特·厄威特的纽约</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：[美] 艾略特·厄威特 / Elliott Erwitt / 王雨辰 </t>
+  </si>
+  <si>
+    <t>出版信息： 后浪丨湖南美术出版社 / 2017-12 / 180.00元</t>
+  </si>
+  <si>
+    <t>镜头在说话（插图修订版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者：梁明 / 李力 </t>
+  </si>
+  <si>
+    <t>出版信息： 后浪丨北京联合出版公司 / 2017-8 / 60.00元</t>
   </si>
   <si>
     <t>调色师手册:电影和视频调色专业技法(第2版)</t>
@@ -1937,15 +1961,6 @@
     <t>出版信息： 人民邮电出版社 / 2017-6 / 168</t>
   </si>
   <si>
-    <t>时代瞬间：影响世界的100幅经典影像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：[意] 玛格丽塔·贾科萨 / [意]罗贝托·莫塔德里 / [意]贾尼·莫雷利 / 孙阳雨 </t>
-  </si>
-  <si>
-    <t>出版信息： 中信出版社 / 2017-7-1 / 88.00元</t>
-  </si>
-  <si>
     <t>一瞬光影：温暖唯美系人像摄影养成攻略</t>
   </si>
   <si>
@@ -1953,15 +1968,6 @@
   </si>
   <si>
     <t>出版信息： 人民邮电出版社 / 2017-10 / 89.00元</t>
-  </si>
-  <si>
-    <t>エウロペ 12歳の神話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者：剣持 加津夫 / 梅原多絵 </t>
-  </si>
-  <si>
-    <t>出版信息： ブロンズ社 / 1977-8 / 3,564円</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2360,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2371,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2394,7 +2400,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2411,10 +2417,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2431,10 +2437,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2454,7 +2460,7 @@
         <v>9.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2471,10 +2477,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -2494,7 +2500,7 @@
         <v>9.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -2514,13 +2520,13 @@
         <v>9.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2528,16 +2534,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
         <v>9.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -2554,7 +2560,7 @@
         <v>9.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1319</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2574,7 +2580,7 @@
         <v>9.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -2594,7 +2600,7 @@
         <v>9.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -2614,7 +2620,7 @@
         <v>9.4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -2634,7 +2640,7 @@
         <v>9.4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -2654,7 +2660,7 @@
         <v>9.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -2674,7 +2680,7 @@
         <v>9.4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -2694,7 +2700,7 @@
         <v>9.4</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>57</v>
@@ -2714,7 +2720,7 @@
         <v>9.4</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -2734,7 +2740,7 @@
         <v>9.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -2754,13 +2760,13 @@
         <v>9.4</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2768,19 +2774,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
         <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2788,19 +2794,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2808,19 +2814,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2828,19 +2834,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
         <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2848,19 +2854,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2868,19 +2874,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2888,19 +2894,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2908,19 +2914,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2928,19 +2934,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2948,19 +2954,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2968,19 +2974,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
         <v>99</v>
-      </c>
-      <c r="F33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2988,19 +2994,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
         <v>102</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3008,19 +3014,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
         <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3028,19 +3034,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3048,19 +3054,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3068,19 +3074,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3088,19 +3094,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3108,19 +3114,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3128,19 +3134,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>567</v>
+      </c>
+      <c r="E41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>123</v>
-      </c>
-      <c r="F41" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3148,19 +3154,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" t="n">
         <v>9.1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>9167</v>
       </c>
       <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
         <v>126</v>
-      </c>
-      <c r="F42" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3168,19 +3174,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="n">
         <v>9.1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
         <v>129</v>
-      </c>
-      <c r="F43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3188,16 +3194,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="n">
         <v>9.1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
         <v>132</v>
@@ -3214,7 +3220,7 @@
         <v>9.1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="E45" t="s">
         <v>134</v>
@@ -3234,7 +3240,7 @@
         <v>9.1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
         <v>137</v>
@@ -3254,7 +3260,7 @@
         <v>9.1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
@@ -3274,13 +3280,13 @@
         <v>9.1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
         <v>143</v>
-      </c>
-      <c r="F48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3288,19 +3294,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E49" t="s">
         <v>145</v>
       </c>
-      <c r="C49" t="n">
-        <v>9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3308,16 +3314,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>114</v>
       </c>
       <c r="F50" t="s">
         <v>149</v>
@@ -3331,10 +3337,10 @@
         <v>150</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -3351,10 +3357,10 @@
         <v>153</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -3374,13 +3380,13 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3339</v>
       </c>
       <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
         <v>157</v>
-      </c>
-      <c r="F53" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3388,19 +3394,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3408,19 +3414,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="n">
         <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" t="s">
         <v>163</v>
-      </c>
-      <c r="F55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3428,19 +3434,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" t="n">
         <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" t="s">
         <v>166</v>
-      </c>
-      <c r="F56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3448,19 +3454,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" t="n">
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" t="s">
         <v>169</v>
-      </c>
-      <c r="F57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3468,19 +3474,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" t="n">
         <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3488,19 +3494,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" t="n">
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" t="s">
         <v>175</v>
-      </c>
-      <c r="F59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3508,19 +3514,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" t="n">
         <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
         <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3528,19 +3534,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" t="n">
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
-      </c>
-      <c r="F61" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3548,19 +3554,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" t="n">
         <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" t="s">
         <v>184</v>
-      </c>
-      <c r="F62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3568,19 +3574,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>336</v>
+      </c>
+      <c r="E63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>187</v>
-      </c>
-      <c r="F63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3588,19 +3594,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>309</v>
+      </c>
+      <c r="E64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>190</v>
-      </c>
-      <c r="F64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3608,19 +3614,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" t="n">
         <v>8.9</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
         <v>193</v>
-      </c>
-      <c r="F65" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3628,19 +3634,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" t="n">
         <v>8.9</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" t="s">
         <v>196</v>
-      </c>
-      <c r="F66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3648,19 +3654,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" t="n">
         <v>8.9</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
         <v>199</v>
-      </c>
-      <c r="F67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3668,19 +3674,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" t="n">
         <v>8.9</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
         <v>202</v>
-      </c>
-      <c r="F68" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3688,19 +3694,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" t="n">
         <v>8.9</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
         <v>205</v>
-      </c>
-      <c r="F69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3708,19 +3714,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>617</v>
+      </c>
+      <c r="E70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>208</v>
-      </c>
-      <c r="F70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3728,19 +3734,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="E71" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" t="s">
         <v>211</v>
-      </c>
-      <c r="F71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3748,19 +3754,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>3153</v>
       </c>
       <c r="E72" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" t="s">
         <v>214</v>
-      </c>
-      <c r="F72" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3768,19 +3774,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" t="s">
         <v>217</v>
-      </c>
-      <c r="F73" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3788,19 +3794,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E74" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s">
         <v>220</v>
-      </c>
-      <c r="F74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3808,13 +3814,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="C75" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5727</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -3834,7 +3840,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -3854,7 +3860,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -3874,13 +3880,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3888,19 +3894,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3908,19 +3914,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3928,19 +3934,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3948,19 +3954,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3968,19 +3974,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3988,19 +3994,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C84" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4008,19 +4014,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="E85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4028,19 +4034,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C86" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>4520</v>
       </c>
       <c r="E86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4048,19 +4054,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C87" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4068,19 +4074,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="E88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4088,19 +4094,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C89" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4108,19 +4114,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4128,19 +4134,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C91" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4148,19 +4154,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4168,19 +4174,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C93" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4188,19 +4194,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4208,19 +4214,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C95" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>5696</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4228,19 +4234,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C96" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1771</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4248,19 +4254,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C97" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4268,19 +4274,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C98" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="F98" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4288,19 +4294,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C99" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4308,19 +4314,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C100" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4328,19 +4334,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C101" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4348,19 +4354,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C102" t="n">
         <v>8.6</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E102" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4368,19 +4374,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C103" t="n">
         <v>8.6</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="E103" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4388,19 +4394,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C104" t="n">
         <v>8.6</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="E104" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4408,19 +4414,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C105" t="n">
         <v>8.6</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>12456</v>
       </c>
       <c r="E105" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F105" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4428,19 +4434,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C106" t="n">
         <v>8.6</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E106" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="F106" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4448,19 +4454,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="C107" t="n">
         <v>8.6</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4468,19 +4474,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="C108" t="n">
         <v>8.6</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4488,19 +4494,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C109" t="n">
         <v>8.6</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F109" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4508,19 +4514,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>173</v>
       </c>
       <c r="C110" t="n">
         <v>8.6</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="E110" t="s">
-        <v>320</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4528,19 +4534,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C111" t="n">
         <v>8.6</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="E111" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4548,19 +4554,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C112" t="n">
         <v>8.6</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4568,19 +4574,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C113" t="n">
         <v>8.6</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F113" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4588,19 +4594,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C114" t="n">
         <v>8.6</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4608,19 +4614,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C115" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F115" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4628,19 +4634,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C116" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F116" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4648,19 +4654,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C117" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F117" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4668,19 +4674,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C118" t="n">
         <v>8.5</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="E118" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4688,19 +4694,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C119" t="n">
         <v>8.5</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F119" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4708,19 +4714,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C120" t="n">
         <v>8.5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="E120" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4728,19 +4734,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="C121" t="n">
         <v>8.5</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="E121" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F121" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4748,19 +4754,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C122" t="n">
         <v>8.5</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E122" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F122" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4768,19 +4774,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C123" t="n">
         <v>8.5</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>361</v>
       </c>
       <c r="F123" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4788,19 +4794,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C124" t="n">
         <v>8.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="E124" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F124" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4808,19 +4814,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C125" t="n">
         <v>8.5</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="E125" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4828,19 +4834,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C126" t="n">
         <v>8.5</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="F126" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4848,19 +4854,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C127" t="n">
         <v>8.5</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E127" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F127" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4868,19 +4874,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="C128" t="n">
         <v>8.5</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F128" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4888,19 +4894,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C129" t="n">
         <v>8.5</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="E129" t="s">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="F129" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4908,19 +4914,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C130" t="n">
         <v>8.5</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="F130" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4928,19 +4934,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>382</v>
       </c>
       <c r="C131" t="n">
         <v>8.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E131" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F131" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4948,19 +4954,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C132" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="F132" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4968,19 +4974,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="C133" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
       <c r="F133" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4988,19 +4994,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C134" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E134" t="s">
-        <v>383</v>
+        <v>225</v>
       </c>
       <c r="F134" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5008,19 +5014,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="C135" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E135" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F135" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5028,19 +5034,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C136" t="n">
         <v>8.4</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E136" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F136" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5048,19 +5054,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C137" t="n">
         <v>8.4</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E137" t="s">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5068,19 +5074,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C138" t="n">
         <v>8.4</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="E138" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F138" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5088,19 +5094,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C139" t="n">
         <v>8.4</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="F139" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5108,19 +5114,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C140" t="n">
         <v>8.4</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E140" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="F140" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5128,19 +5134,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C141" t="n">
         <v>8.4</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E141" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F141" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5148,19 +5154,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C142" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="E142" t="s">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="F142" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5168,19 +5174,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C143" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>412</v>
       </c>
       <c r="F143" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5188,19 +5194,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C144" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F144" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5208,19 +5214,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C145" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>2876</v>
       </c>
       <c r="E145" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F145" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5228,19 +5234,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C146" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="E146" t="s">
-        <v>416</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5248,19 +5254,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C147" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="E147" t="s">
-        <v>419</v>
+        <v>213</v>
       </c>
       <c r="F147" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5268,19 +5274,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C148" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="E148" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
       <c r="F148" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5288,19 +5294,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C149" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>428</v>
       </c>
       <c r="F149" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5308,19 +5314,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C150" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="E150" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5328,19 +5334,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="C151" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="E151" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F151" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5348,19 +5354,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C152" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E152" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F152" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5368,19 +5374,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C153" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="E153" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F153" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5388,19 +5394,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C154" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="E154" t="s">
-        <v>438</v>
+        <v>260</v>
       </c>
       <c r="F154" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5408,19 +5414,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C155" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="E155" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
       <c r="F155" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5428,19 +5434,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C156" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F156" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5448,19 +5454,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C157" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F157" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5468,19 +5474,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C158" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E158" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F158" t="s">
-        <v>448</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5488,19 +5494,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C159" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F159" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5508,19 +5514,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C160" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="E160" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F160" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5528,19 +5534,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>459</v>
       </c>
       <c r="C161" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="E161" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F161" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5548,19 +5554,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C162" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E162" t="s">
-        <v>458</v>
+        <v>225</v>
       </c>
       <c r="F162" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5568,19 +5574,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C163" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="E163" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F163" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5588,19 +5594,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C164" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="E164" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F164" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5608,19 +5614,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="C165" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>2014</v>
       </c>
       <c r="E165" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F165" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5628,19 +5634,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C166" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E166" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F166" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5648,19 +5654,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C167" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E167" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F167" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5668,19 +5674,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C168" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="E168" t="s">
-        <v>476</v>
+        <v>225</v>
       </c>
       <c r="F168" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5688,19 +5694,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C169" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E169" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F169" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5708,19 +5714,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C170" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E170" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F170" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5728,19 +5734,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C171" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>2374</v>
       </c>
       <c r="E171" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F171" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5748,19 +5754,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C172" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E172" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F172" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5768,19 +5774,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E173" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F173" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5788,19 +5794,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>2877</v>
       </c>
       <c r="E174" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F174" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5808,19 +5814,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C175" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="E175" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F175" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5828,19 +5834,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C176" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E176" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F176" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5848,19 +5854,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C177" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="E177" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F177" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5868,19 +5874,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="E178" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F178" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5888,19 +5894,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C179" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E179" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F179" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5908,19 +5914,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C180" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E180" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F180" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5928,19 +5934,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C181" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="E181" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F181" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5948,19 +5954,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C182" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="E182" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F182" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5968,19 +5974,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C183" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E183" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F183" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5988,19 +5994,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C184" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="E184" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F184" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6008,19 +6014,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C185" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="E185" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F185" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -6028,19 +6034,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C186" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E186" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="F186" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -6048,19 +6054,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C187" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E187" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F187" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6068,19 +6074,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C188" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E188" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F188" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -6088,19 +6094,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C189" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E189" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F189" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6108,19 +6114,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C190" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="E190" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F190" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6128,19 +6134,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C191" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="E191" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F191" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6148,19 +6154,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C192" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F192" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6168,19 +6174,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C193" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="E193" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6188,19 +6194,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C194" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E194" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F194" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6208,19 +6214,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C195" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E195" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F195" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6228,19 +6234,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C196" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="E196" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F196" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6248,19 +6254,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C197" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E197" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="F197" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6268,19 +6274,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>566</v>
       </c>
       <c r="C198" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="E198" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F198" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6288,19 +6294,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C199" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E199" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F199" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6308,19 +6314,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C200" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E200" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F200" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6328,19 +6334,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C201" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F201" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6348,19 +6354,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C202" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="E202" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F202" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6368,19 +6374,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C203" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E203" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F203" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6388,19 +6394,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>581</v>
+        <v>194</v>
       </c>
       <c r="C204" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="E204" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F204" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6408,19 +6414,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C205" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E205" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F205" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6428,19 +6434,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C206" t="n">
         <v>7.5</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="E206" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F206" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6448,19 +6454,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C207" t="n">
         <v>7.5</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E207" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F207" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6468,19 +6474,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C208" t="n">
         <v>7.4</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E208" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F208" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6488,19 +6494,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C209" t="n">
         <v>7.3</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>8390</v>
       </c>
       <c r="E209" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F209" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6508,19 +6514,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C210" t="n">
         <v>7.3</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E210" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F210" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6528,19 +6534,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C211" t="n">
         <v>7.2</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="E211" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F211" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6548,19 +6554,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C212" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="E212" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F212" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6568,19 +6574,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C213" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F213" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6588,19 +6594,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C214" t="n">
         <v>6.9</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E214" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F214" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6608,19 +6614,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C215" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="E215" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F215" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6628,19 +6634,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C216" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E216" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F216" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6648,19 +6654,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>623</v>
       </c>
       <c r="F217" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6668,19 +6674,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C218" t="n">
         <v>10</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>623</v>
+        <v>225</v>
       </c>
       <c r="F218" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6688,19 +6694,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F219" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6708,19 +6714,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F220" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6728,7 +6734,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6737,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F221" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6748,7 +6754,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6757,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F222" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6768,7 +6774,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6777,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F223" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6788,7 +6794,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6797,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F224" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6808,7 +6814,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6817,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F225" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6828,7 +6834,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6837,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F226" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
